--- a/Action Tracker.xlsx
+++ b/Action Tracker.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\agilavasu_p\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\06 Agila\01 Proj\01 Art\01  AaaS\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="69">
   <si>
     <t>Thiru</t>
   </si>
@@ -35,53 +35,202 @@
     <t>Vasu/Thiru</t>
   </si>
   <si>
-    <t>ETL Concepts</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Metadata,Taxonomy,Linkage,Enrichment and Match and Merge Concepts
-</t>
-  </si>
-  <si>
-    <t>Data warehousing Concepts</t>
-  </si>
-  <si>
-    <t>File transfer volume contraint analysis</t>
-  </si>
-  <si>
     <t>File format supported small ERP and other systems used by SMB</t>
   </si>
   <si>
     <t>Vasu</t>
   </si>
   <si>
-    <t>Analyze Dataiku DSS</t>
-  </si>
-  <si>
-    <t>Slide Clean up</t>
-  </si>
-  <si>
     <t>Owner</t>
   </si>
   <si>
-    <t>Activity</t>
-  </si>
-  <si>
     <t>S.No</t>
   </si>
   <si>
     <t>Status</t>
   </si>
   <si>
-    <t>Closed</t>
-  </si>
-  <si>
-    <t>Not required we will go with ReportServer or SpagoBI</t>
-  </si>
-  <si>
     <t>Remarks</t>
   </si>
   <si>
     <t>Prem</t>
+  </si>
+  <si>
+    <t>ETL</t>
+  </si>
+  <si>
+    <t>Use case flow</t>
+  </si>
+  <si>
+    <t>Market place slides</t>
+  </si>
+  <si>
+    <t>Architecture</t>
+  </si>
+  <si>
+    <t>LDAP, Single Sign on</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Funding </t>
+  </si>
+  <si>
+    <t>Node.js and Angular.js</t>
+  </si>
+  <si>
+    <t>Completed</t>
+  </si>
+  <si>
+    <t>File transfer volume constraint analysis</t>
+  </si>
+  <si>
+    <t>Architecture draft finalization</t>
+  </si>
+  <si>
+    <t>Ram</t>
+  </si>
+  <si>
+    <t>Technology</t>
+  </si>
+  <si>
+    <t>General</t>
+  </si>
+  <si>
+    <t>Task Category</t>
+  </si>
+  <si>
+    <t>Task Description</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Solution Presentation </t>
+  </si>
+  <si>
+    <t>Finalization</t>
+  </si>
+  <si>
+    <t>Market place</t>
+  </si>
+  <si>
+    <t>Review</t>
+  </si>
+  <si>
+    <t>Resources</t>
+  </si>
+  <si>
+    <t>Identify Java Resource</t>
+  </si>
+  <si>
+    <t>Thiru/Ram</t>
+  </si>
+  <si>
+    <t>Identify Infrastructure Resource</t>
+  </si>
+  <si>
+    <t>File Transfer</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ETL </t>
+  </si>
+  <si>
+    <t>End to end flow with details, Dashboard monitoring requirements</t>
+  </si>
+  <si>
+    <t>Evaluate Rule Engine - Drool</t>
+  </si>
+  <si>
+    <t>Data Store</t>
+  </si>
+  <si>
+    <t>Analytic Model</t>
+  </si>
+  <si>
+    <t>Business Intelligence</t>
+  </si>
+  <si>
+    <t>Visualization</t>
+  </si>
+  <si>
+    <t>Business</t>
+  </si>
+  <si>
+    <t>Marketing Approach/Solution Positioning</t>
+  </si>
+  <si>
+    <t>Approach Document</t>
+  </si>
+  <si>
+    <t>Customer Portal</t>
+  </si>
+  <si>
+    <t>Vasu/Prem</t>
+  </si>
+  <si>
+    <t>First level Technology evaluation and finalization</t>
+  </si>
+  <si>
+    <t>Ticketing Tool</t>
+  </si>
+  <si>
+    <t>Subscription Module</t>
+  </si>
+  <si>
+    <t>App Store</t>
+  </si>
+  <si>
+    <t>Community</t>
+  </si>
+  <si>
+    <t>Mantis?</t>
+  </si>
+  <si>
+    <t>Wordpress?</t>
+  </si>
+  <si>
+    <t>Security</t>
+  </si>
+  <si>
+    <t>Trace/Track</t>
+  </si>
+  <si>
+    <t>Performance</t>
+  </si>
+  <si>
+    <t>Monitoring</t>
+  </si>
+  <si>
+    <t>Service Level Reports</t>
+  </si>
+  <si>
+    <t>Subscription and Usage monitoring</t>
+  </si>
+  <si>
+    <t>ETL Reports</t>
+  </si>
+  <si>
+    <t>Metering/Usage</t>
+  </si>
+  <si>
+    <t>API Manager</t>
+  </si>
+  <si>
+    <t>In progress</t>
+  </si>
+  <si>
+    <t>JBoss</t>
+  </si>
+  <si>
+    <t>Xgvi</t>
+  </si>
+  <si>
+    <t>Deployment</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Configuration </t>
+  </si>
+  <si>
+    <t>Overall Platform Technology/Design</t>
+  </si>
+  <si>
+    <t>Overall Platform Development/Maintenance</t>
   </si>
 </sst>
 </file>
@@ -140,7 +289,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -159,6 +308,15 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" indent="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -439,274 +597,634 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:F24"/>
+  <dimension ref="B1:G38"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H16" sqref="H16"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D41" sqref="D41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="4.28515625" style="2" customWidth="1"/>
+    <col min="1" max="1" width="0.85546875" style="2" customWidth="1"/>
     <col min="2" max="2" width="5.140625" style="5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="69.5703125" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="49.42578125" style="2" bestFit="1" customWidth="1"/>
-    <col min="7" max="16384" width="8.85546875" style="2"/>
+    <col min="3" max="3" width="21" style="9" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="60.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="60.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="16384" width="8.85546875" style="2"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B2" s="1" t="s">
+    <row r="1" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G1" s="6" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B2" s="3">
+        <v>1</v>
+      </c>
+      <c r="C2" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="F2" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="G2" s="7"/>
+    </row>
+    <row r="3" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B3" s="3">
+        <v>2</v>
+      </c>
+      <c r="C3" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="F3" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="G3" s="7" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="4" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B4" s="3">
+        <v>3</v>
+      </c>
+      <c r="C4" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="G4" s="7"/>
+    </row>
+    <row r="5" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B5" s="3">
+        <v>4</v>
+      </c>
+      <c r="C5" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="F5" s="7"/>
+      <c r="G5" s="7"/>
+    </row>
+    <row r="6" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B6" s="3">
+        <v>5</v>
+      </c>
+      <c r="C6" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="F6" s="7"/>
+      <c r="G6" s="7"/>
+    </row>
+    <row r="7" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B7" s="3">
+        <v>6</v>
+      </c>
+      <c r="C7" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="F7" s="7"/>
+      <c r="G7" s="7"/>
+    </row>
+    <row r="8" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B8" s="3">
+        <v>7</v>
+      </c>
+      <c r="C8" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="E8" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="G8" s="7" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="9" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B9" s="3">
+        <v>8</v>
+      </c>
+      <c r="C9" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="D9" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="E9" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="G9" s="7" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="10" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B10" s="3">
+        <v>9</v>
+      </c>
+      <c r="C10" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="E10" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="F10" s="7"/>
+      <c r="G10" s="7"/>
+    </row>
+    <row r="11" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B11" s="3">
+        <v>10</v>
+      </c>
+      <c r="C11" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="E11" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="F11" s="7"/>
+      <c r="G11" s="7"/>
+    </row>
+    <row r="12" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B12" s="3">
+        <v>11</v>
+      </c>
+      <c r="C12" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="D12" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="E12" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="F12" s="7"/>
+      <c r="G12" s="7" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="13" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B13" s="3">
         <v>12</v>
       </c>
-      <c r="D2" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E2" s="1" t="s">
+      <c r="C13" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="D13" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="E13" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="F13" s="7"/>
+      <c r="G13" s="7" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="14" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B14" s="3">
+        <v>13</v>
+      </c>
+      <c r="C14" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="D14" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="E14" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="F14" s="7"/>
+      <c r="G14" s="7"/>
+    </row>
+    <row r="15" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B15" s="3">
         <v>14</v>
       </c>
-      <c r="F2" s="6" t="s">
+      <c r="C15" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="D15" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="E15" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="F15" s="7"/>
+      <c r="G15" s="7"/>
+    </row>
+    <row r="16" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B16" s="3">
+        <v>15</v>
+      </c>
+      <c r="C16" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="D16" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="E16" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="F16" s="7"/>
+      <c r="G16" s="7"/>
+    </row>
+    <row r="17" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B17" s="3">
+        <v>16</v>
+      </c>
+      <c r="C17" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="D17" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="E17" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="F17" s="7"/>
+      <c r="G17" s="7"/>
+    </row>
+    <row r="18" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B18" s="3">
         <v>17</v>
       </c>
-    </row>
-    <row r="3" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B3" s="3">
-        <v>1</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="D3" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="E3" s="7"/>
-      <c r="F3" s="7"/>
-    </row>
-    <row r="4" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B4" s="3">
-        <v>2</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="D4" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="E4" s="7" t="s">
+      <c r="C18" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="D18" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="E18" s="4"/>
+      <c r="F18" s="7"/>
+      <c r="G18" s="7"/>
+    </row>
+    <row r="19" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B19" s="3">
+        <v>18</v>
+      </c>
+      <c r="C19" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="D19" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="E19" s="4"/>
+      <c r="F19" s="7"/>
+      <c r="G19" s="7" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="20" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B20" s="3">
+        <v>19</v>
+      </c>
+      <c r="C20" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="D20" s="10" t="s">
+        <v>49</v>
+      </c>
+      <c r="E20" s="4"/>
+      <c r="F20" s="7"/>
+      <c r="G20" s="7"/>
+    </row>
+    <row r="21" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B21" s="3">
+        <v>20</v>
+      </c>
+      <c r="C21" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="D21" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="E21" s="4"/>
+      <c r="F21" s="7"/>
+      <c r="G21" s="7" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="22" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B22" s="3">
+        <v>21</v>
+      </c>
+      <c r="C22" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="D22" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="E22" s="4"/>
+      <c r="F22" s="7"/>
+      <c r="G22" s="7" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="23" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B23" s="3">
+        <v>22</v>
+      </c>
+      <c r="C23" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="D23" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="E23" s="4"/>
+      <c r="F23" s="7"/>
+      <c r="G23" s="7"/>
+    </row>
+    <row r="24" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B24" s="3">
+        <v>23</v>
+      </c>
+      <c r="C24" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="D24" s="10" t="s">
+        <v>59</v>
+      </c>
+      <c r="E24" s="4"/>
+      <c r="F24" s="7"/>
+      <c r="G24" s="7"/>
+    </row>
+    <row r="25" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B25" s="3">
+        <v>24</v>
+      </c>
+      <c r="C25" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="D25" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="E25" s="4"/>
+      <c r="F25" s="7"/>
+      <c r="G25" s="7"/>
+    </row>
+    <row r="26" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B26" s="3">
+        <v>25</v>
+      </c>
+      <c r="C26" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="D26" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="E26" s="4"/>
+      <c r="F26" s="7"/>
+      <c r="G26" s="7" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="27" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B27" s="3">
+        <v>26</v>
+      </c>
+      <c r="C27" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="D27" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="E27" s="4"/>
+      <c r="F27" s="7"/>
+      <c r="G27" s="7"/>
+    </row>
+    <row r="28" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B28" s="3">
+        <v>27</v>
+      </c>
+      <c r="C28" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="D28" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="E28" s="4"/>
+      <c r="F28" s="7"/>
+      <c r="G28" s="7" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="29" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B29" s="3">
+        <v>28</v>
+      </c>
+      <c r="C29" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="D29" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="E29" s="4"/>
+      <c r="F29" s="7"/>
+      <c r="G29" s="7"/>
+    </row>
+    <row r="30" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B30" s="3">
+        <v>29</v>
+      </c>
+      <c r="C30" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="D30" s="10" t="s">
+        <v>56</v>
+      </c>
+      <c r="E30" s="4"/>
+      <c r="F30" s="7"/>
+      <c r="G30" s="7"/>
+    </row>
+    <row r="31" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B31" s="3">
+        <v>30</v>
+      </c>
+      <c r="C31" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="D31" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="E31" s="4"/>
+      <c r="F31" s="7"/>
+      <c r="G31" s="7"/>
+    </row>
+    <row r="32" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B32" s="3">
+        <v>31</v>
+      </c>
+      <c r="C32" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="D32" s="10" t="s">
+        <v>65</v>
+      </c>
+      <c r="E32" s="4"/>
+      <c r="F32" s="7"/>
+      <c r="G32" s="7"/>
+    </row>
+    <row r="33" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B33" s="3">
+        <v>32</v>
+      </c>
+      <c r="C33" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="D33" s="10" t="s">
+        <v>66</v>
+      </c>
+      <c r="E33" s="4"/>
+      <c r="F33" s="7"/>
+      <c r="G33" s="7"/>
+    </row>
+    <row r="34" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B34" s="3">
+        <v>33</v>
+      </c>
+      <c r="C34" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="D34" s="10" t="s">
+        <v>61</v>
+      </c>
+      <c r="E34" s="4"/>
+      <c r="F34" s="7"/>
+      <c r="G34" s="7"/>
+    </row>
+    <row r="35" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B35" s="3">
+        <v>34</v>
+      </c>
+      <c r="C35" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="D35" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="E35" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="F35" s="7"/>
+      <c r="G35" s="7" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="36" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B36" s="3">
+        <v>35</v>
+      </c>
+      <c r="C36" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="D36" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="E36" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="F36" s="7"/>
+      <c r="G36" s="7"/>
+    </row>
+    <row r="37" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B37" s="3">
+        <v>36</v>
+      </c>
+      <c r="C37" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="D37" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="E37" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="F37" s="7"/>
+      <c r="G37" s="7"/>
+    </row>
+    <row r="38" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B38" s="3">
+        <v>37</v>
+      </c>
+      <c r="C38" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="D38" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="F4" s="7" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="5" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B5" s="3">
-        <v>3</v>
-      </c>
-      <c r="C5" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="D5" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="E5" s="7"/>
-      <c r="F5" s="7"/>
-    </row>
-    <row r="6" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B6" s="3">
-        <v>4</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="D6" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="E6" s="7"/>
-      <c r="F6" s="7"/>
-    </row>
-    <row r="7" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B7" s="3">
-        <v>5</v>
-      </c>
-      <c r="C7" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="D7" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="E7" s="7"/>
-      <c r="F7" s="7"/>
-    </row>
-    <row r="8" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B8" s="3">
-        <v>6</v>
-      </c>
-      <c r="C8" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="D8" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="E8" s="7"/>
-      <c r="F8" s="7"/>
-    </row>
-    <row r="9" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B9" s="3">
-        <v>7</v>
-      </c>
-      <c r="C9" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="D9" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="E9" s="7"/>
-      <c r="F9" s="7"/>
-    </row>
-    <row r="10" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B10" s="3">
-        <v>8</v>
-      </c>
-      <c r="C10" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="D10" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="E10" s="7"/>
-      <c r="F10" s="7"/>
-    </row>
-    <row r="11" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B11" s="3">
-        <v>9</v>
-      </c>
-      <c r="C11" s="4"/>
-      <c r="D11" s="4"/>
-      <c r="E11" s="7"/>
-      <c r="F11" s="7"/>
-    </row>
-    <row r="12" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B12" s="3">
-        <v>10</v>
-      </c>
-      <c r="C12" s="4"/>
-      <c r="D12" s="4"/>
-      <c r="E12" s="7"/>
-      <c r="F12" s="7"/>
-    </row>
-    <row r="13" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B13" s="3">
-        <v>11</v>
-      </c>
-      <c r="C13" s="4"/>
-      <c r="D13" s="4"/>
-      <c r="E13" s="7"/>
-      <c r="F13" s="7"/>
-    </row>
-    <row r="14" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B14" s="3">
-        <v>12</v>
-      </c>
-      <c r="C14" s="4"/>
-      <c r="D14" s="4"/>
-      <c r="E14" s="7"/>
-      <c r="F14" s="7"/>
-    </row>
-    <row r="15" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B15" s="3">
-        <v>13</v>
-      </c>
-      <c r="C15" s="4"/>
-      <c r="D15" s="4"/>
-      <c r="E15" s="7"/>
-      <c r="F15" s="7"/>
-    </row>
-    <row r="16" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B16" s="3">
-        <v>14</v>
-      </c>
-      <c r="C16" s="4"/>
-      <c r="D16" s="4"/>
-      <c r="E16" s="7"/>
-      <c r="F16" s="7"/>
-    </row>
-    <row r="17" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B17" s="3">
-        <v>15</v>
-      </c>
-      <c r="C17" s="4"/>
-      <c r="D17" s="4"/>
-      <c r="E17" s="7"/>
-      <c r="F17" s="7"/>
-    </row>
-    <row r="18" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B18" s="3">
-        <v>16</v>
-      </c>
-      <c r="C18" s="4"/>
-      <c r="D18" s="4"/>
-      <c r="E18" s="7"/>
-      <c r="F18" s="7"/>
-    </row>
-    <row r="19" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B19" s="3">
-        <v>17</v>
-      </c>
-      <c r="C19" s="4"/>
-      <c r="D19" s="4"/>
-      <c r="E19" s="7"/>
-      <c r="F19" s="7"/>
-    </row>
-    <row r="20" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B20" s="3">
-        <v>18</v>
-      </c>
-      <c r="C20" s="4"/>
-      <c r="D20" s="4"/>
-      <c r="E20" s="7"/>
-      <c r="F20" s="7"/>
-    </row>
-    <row r="21" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B21" s="3">
-        <v>19</v>
-      </c>
-      <c r="C21" s="4"/>
-      <c r="D21" s="4"/>
-      <c r="E21" s="7"/>
-      <c r="F21" s="7"/>
-    </row>
-    <row r="22" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B22" s="3">
+      <c r="E38" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="C22" s="4"/>
-      <c r="D22" s="4"/>
-      <c r="E22" s="7"/>
-      <c r="F22" s="7"/>
-    </row>
-    <row r="23" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B23" s="3">
-        <v>21</v>
-      </c>
-      <c r="C23" s="4"/>
-      <c r="D23" s="4"/>
-      <c r="E23" s="7"/>
-      <c r="F23" s="7"/>
-    </row>
-    <row r="24" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B24" s="3">
-        <v>22</v>
-      </c>
-      <c r="C24" s="4"/>
-      <c r="D24" s="4"/>
-      <c r="E24" s="7"/>
-      <c r="F24" s="7"/>
+      <c r="F38" s="7"/>
+      <c r="G38" s="7"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
